--- a/data/CSV/WaveCamera.xlsx
+++ b/data/CSV/WaveCamera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\TeamProject_G1_FTeam\data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F587D30-47EF-4023-A596-7064E65D284C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79D37FAA-DEFA-4D6A-BE0B-130374C34659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" xr2:uid="{FF0B1AD0-0AFD-4765-8D7E-87178D25F633}"/>
   </bookViews>
@@ -652,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C51E9-BF30-47FC-BFF4-A766667DF452}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B2" s="18">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>710</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3">
         <f>C2</f>
@@ -750,7 +750,7 @@
         <v>710</v>
       </c>
       <c r="K2" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11">
         <v>100</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
+        <v>330</v>
+      </c>
+      <c r="B3" s="18">
         <v>400</v>
-      </c>
-      <c r="B3" s="18">
-        <v>10</v>
       </c>
       <c r="C3" s="2">
         <f>I2</f>
@@ -779,7 +779,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -794,140 +794,114 @@
         <v>80</v>
       </c>
       <c r="I3" s="9">
-        <f>C2</f>
-        <v>-150</v>
+        <v>200</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:N3" si="1">D2</f>
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3" s="11">
-        <f t="shared" si="1"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="B4" s="18">
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C5" si="2">I3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>800</v>
+      </c>
+      <c r="E4" s="2">
         <v>-150</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="3">J3</f>
-        <v>710</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="4">K3</f>
-        <v>0</v>
-      </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F5" si="5">L3</f>
+        <f t="shared" ref="F4:F5" si="1">L3</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4-40</f>
+        <v>760</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>600</v>
+      </c>
+      <c r="K4" s="9">
         <v>-150</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G5" si="6">M3</f>
-        <v>700</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H5" si="7">N3</f>
-        <v>80</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I5" si="8">C3</f>
-        <v>100</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J5" si="9">D3</f>
-        <v>710</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K5" si="10">E3</f>
-        <v>0</v>
-      </c>
       <c r="L4" s="11">
-        <f t="shared" ref="L4:L5" si="11">F3</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M5" si="12">G3</f>
-        <v>700</v>
+        <f>J4-40</f>
+        <v>560</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" ref="N4:N5" si="13">H3</f>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="B5" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
-        <v>710</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="6"/>
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="8"/>
-        <v>-150</v>
+        <f>C4</f>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="9"/>
-        <v>710</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="11"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="12"/>
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.45"/>

--- a/data/CSV/WaveCamera.xlsx
+++ b/data/CSV/WaveCamera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\TeamProject_G1_FTeam\data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79D37FAA-DEFA-4D6A-BE0B-130374C34659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE910BB-3D34-4815-AF6D-4C914C881717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5460" xr2:uid="{FF0B1AD0-0AFD-4765-8D7E-87178D25F633}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -829,7 +829,7 @@
         <v>-150</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F5" si="1">L3</f>
+        <f t="shared" ref="F4" si="1">L3</f>
         <v>0</v>
       </c>
       <c r="G4" s="3">
@@ -861,7 +861,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
